--- a/ODEP-Hip-SubmissionForm_v8.01_versjon1.xlsx
+++ b/ODEP-Hip-SubmissionForm_v8.01_versjon1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ihelse.net\Kvalitetsregister\hbe\2011-06449\BRUKERE\Sigurd\ODEP IP CUP\IP-CUP-X-LINKED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{769B1ACC-D3B4-4C5B-BD4D-96500FA8C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D338B5-4EAF-4841-83F2-B22CD8218F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="2250" windowWidth="25440" windowHeight="15270" tabRatio="731" activeTab="5" xr2:uid="{1F93A989-278A-4443-8F54-4FEA8517D7A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="731" activeTab="5" xr2:uid="{1F93A989-278A-4443-8F54-4FEA8517D7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance notes" sheetId="10" r:id="rId1"/>
@@ -1031,9 +1031,6 @@
     <t>IP CUP (X-LINKED)</t>
   </si>
   <si>
-    <t>The register do not register the surgens. 2117 primary operation in x patients. Hiarki diagnose. PROM. Hiraki på revision in full cohort.</t>
-  </si>
-  <si>
     <t>74.7</t>
   </si>
   <si>
@@ -1044,6 +1041,9 @@
   </si>
   <si>
     <t>(0-12.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The register do not have information on surgeons, only hospitals. There is 2117 primary operation in 1937 patients.  Median age is 74.9 with (min = 14.2, max =96.3). In the fall 2017 the register started collecting PROMs. Patients are examined at the operation and at a one year control. Some results are publshed in our Årsrapport. Diagnoses are based on operations, including bilaterals (n = 2117). The  hiarki for the diagnosis is RA&gt;OA&gt;OTHER.   Comulative revision rates are calculated at 10 years. X-LINKED was opearted from 2011(only 6 used in 2011). The last cup/stem revisjon was at 10.1 years. For the follow up in years (min = 0 max = 12.9) . </t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2905,6 +2905,19 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2913,6 +2926,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2957,50 +3015,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -3009,6 +3031,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3032,82 +3066,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -3117,6 +3080,34 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3139,6 +3130,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3183,26 +3204,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4708,14 +4711,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -4789,14 +4792,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -9982,7 +9985,7 @@
             <a:xfrm>
               <a:off x="4000500" y="3741964"/>
               <a:ext cx="2676004" cy="163286"/>
-              <a:chOff x="3793376" y="2942598"/>
+              <a:chOff x="3793376" y="2942596"/>
               <a:chExt cx="2676004" cy="219627"/>
             </a:xfrm>
           </xdr:grpSpPr>
@@ -10069,7 +10072,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5105448" y="2942598"/>
+                <a:off x="5105448" y="2942596"/>
                 <a:ext cx="1363932" cy="219627"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10295,8 +10298,8 @@
             <a:xfrm>
               <a:off x="4393094" y="5237418"/>
               <a:ext cx="2950911" cy="219627"/>
-              <a:chOff x="3793379" y="2942694"/>
-              <a:chExt cx="2675991" cy="219627"/>
+              <a:chOff x="3793380" y="2942694"/>
+              <a:chExt cx="2675989" cy="219627"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -10315,7 +10318,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="3793379" y="2948940"/>
+                <a:off x="3793380" y="2948940"/>
                 <a:ext cx="1273925" cy="205740"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10382,7 +10385,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5105442" y="2942694"/>
+                <a:off x="5105441" y="2942694"/>
                 <a:ext cx="1363928" cy="219627"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10469,8 +10472,8 @@
             <a:xfrm>
               <a:off x="4393094" y="5481205"/>
               <a:ext cx="2950911" cy="219627"/>
-              <a:chOff x="3793379" y="2942694"/>
-              <a:chExt cx="2675991" cy="219627"/>
+              <a:chOff x="3793380" y="2942694"/>
+              <a:chExt cx="2675989" cy="219627"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -10489,7 +10492,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="3793379" y="2948940"/>
+                <a:off x="3793380" y="2948940"/>
                 <a:ext cx="1273925" cy="205740"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10556,7 +10559,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5105442" y="2942694"/>
+                <a:off x="5105441" y="2942694"/>
                 <a:ext cx="1363928" cy="219627"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10814,8 +10817,8 @@
             <a:xfrm>
               <a:off x="4289048" y="15078658"/>
               <a:ext cx="2950911" cy="219627"/>
-              <a:chOff x="3793380" y="2942679"/>
-              <a:chExt cx="2675995" cy="219627"/>
+              <a:chOff x="3793381" y="2942679"/>
+              <a:chExt cx="2675993" cy="219627"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -10834,7 +10837,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="3793380" y="2948940"/>
+                <a:off x="3793381" y="2948940"/>
                 <a:ext cx="1273929" cy="205740"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10901,7 +10904,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5105442" y="2942679"/>
+                <a:off x="5105441" y="2942679"/>
                 <a:ext cx="1363933" cy="219627"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -18501,7 +18504,7 @@
             <a:xfrm>
               <a:off x="3019424" y="314324"/>
               <a:ext cx="914401" cy="228601"/>
-              <a:chOff x="5581660" y="1266796"/>
+              <a:chOff x="5581660" y="1266794"/>
               <a:chExt cx="1066791" cy="190510"/>
             </a:xfrm>
           </xdr:grpSpPr>
@@ -18521,7 +18524,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5581660" y="1266805"/>
+                <a:off x="5581660" y="1266803"/>
                 <a:ext cx="523875" cy="190501"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -18587,7 +18590,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6124576" y="1266796"/>
+                <a:off x="6124576" y="1266794"/>
                 <a:ext cx="523875" cy="190498"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -18678,8 +18681,8 @@
             <a:xfrm>
               <a:off x="3693795" y="3098068"/>
               <a:ext cx="988905" cy="210917"/>
-              <a:chOff x="3779503" y="3437861"/>
-              <a:chExt cx="806959" cy="208800"/>
+              <a:chOff x="3779504" y="3437863"/>
+              <a:chExt cx="806955" cy="208800"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -18698,7 +18701,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="3779503" y="3437861"/>
+                <a:off x="3779504" y="3437863"/>
                 <a:ext cx="378002" cy="208800"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -18765,7 +18768,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="4208848" y="3439160"/>
+                <a:off x="4208845" y="3439160"/>
                 <a:ext cx="377614" cy="207433"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -19139,50 +19142,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="261"/>
+      <c r="B1" s="265"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
     </row>
     <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="260" t="s">
+      <c r="A5" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="260"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
     </row>
     <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
@@ -19313,20 +19316,20 @@
       <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="271" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="286"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="273"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="274" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="289"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="276"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -19400,60 +19403,60 @@
       <c r="D14" s="183"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="278" t="s">
+      <c r="A15" s="269" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="279"/>
+      <c r="B15" s="270"/>
       <c r="C15" s="208"/>
       <c r="D15" s="226"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="278" t="s">
+      <c r="A16" s="269" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="279"/>
+      <c r="B16" s="270"/>
       <c r="C16" s="208"/>
       <c r="D16" s="226"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="278" t="s">
+      <c r="A17" s="269" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="279"/>
+      <c r="B17" s="270"/>
       <c r="C17" s="208"/>
       <c r="D17" s="226"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="278" t="s">
+      <c r="A18" s="269" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="279"/>
+      <c r="B18" s="270"/>
       <c r="C18" s="208"/>
       <c r="D18" s="226"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="278" t="s">
+      <c r="A19" s="269" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="279"/>
+      <c r="B19" s="270"/>
       <c r="C19"/>
       <c r="D19" s="226"/>
       <c r="E19" s="210"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="278" t="s">
+      <c r="A20" s="269" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="279"/>
+      <c r="B20" s="270"/>
       <c r="C20" s="208"/>
       <c r="D20" s="226"/>
     </row>
     <row r="21" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="275" t="s">
+      <c r="A21" s="266" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="276"/>
-      <c r="C21" s="277"/>
+      <c r="B21" s="267"/>
+      <c r="C21" s="268"/>
       <c r="D21" s="226"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -19467,83 +19470,83 @@
       <c r="D23" s="231"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="275" t="s">
+      <c r="A24" s="266" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="276"/>
-      <c r="C24" s="277"/>
+      <c r="B24" s="267"/>
+      <c r="C24" s="268"/>
       <c r="D24" s="226"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="275" t="s">
+      <c r="A25" s="266" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="276"/>
-      <c r="C25" s="277"/>
+      <c r="B25" s="267"/>
+      <c r="C25" s="268"/>
       <c r="D25" s="226"/>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="275" t="s">
+      <c r="A26" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="276"/>
-      <c r="C26" s="277"/>
+      <c r="B26" s="267"/>
+      <c r="C26" s="268"/>
       <c r="D26" s="226"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="283" t="s">
+      <c r="A27" s="280" t="s">
         <v>235</v>
       </c>
-      <c r="B27" s="276"/>
-      <c r="C27" s="277"/>
+      <c r="B27" s="267"/>
+      <c r="C27" s="268"/>
       <c r="D27" s="226"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="275" t="s">
+      <c r="A28" s="266" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="276"/>
-      <c r="C28" s="277"/>
+      <c r="B28" s="267"/>
+      <c r="C28" s="268"/>
       <c r="D28" s="226"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="275" t="s">
+      <c r="A29" s="266" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="276"/>
-      <c r="C29" s="277"/>
+      <c r="B29" s="267"/>
+      <c r="C29" s="268"/>
       <c r="D29" s="226"/>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="283" t="s">
+      <c r="A30" s="280" t="s">
         <v>236</v>
       </c>
-      <c r="B30" s="276"/>
-      <c r="C30" s="277"/>
+      <c r="B30" s="267"/>
+      <c r="C30" s="268"/>
       <c r="D30" s="226"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="275" t="s">
+      <c r="A31" s="266" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="276"/>
-      <c r="C31" s="277"/>
+      <c r="B31" s="267"/>
+      <c r="C31" s="268"/>
       <c r="D31" s="226"/>
     </row>
     <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="278" t="s">
+      <c r="A32" s="269" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="279"/>
+      <c r="B32" s="270"/>
       <c r="C32" s="208"/>
       <c r="D32" s="226"/>
     </row>
     <row r="33" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="280" t="s">
+      <c r="A33" s="277" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="281"/>
-      <c r="C33" s="282"/>
+      <c r="B33" s="278"/>
+      <c r="C33" s="279"/>
       <c r="D33" s="228"/>
     </row>
     <row r="34" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19642,7 +19645,7 @@
       </c>
       <c r="B48" s="189"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="265"/>
+      <c r="D48" s="284"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="203" t="s">
@@ -19650,7 +19653,7 @@
       </c>
       <c r="B49" s="189"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="266"/>
+      <c r="D49" s="285"/>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="203"/>
@@ -19659,11 +19662,11 @@
       <c r="D50" s="230"/>
     </row>
     <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="273" t="s">
+      <c r="A51" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="274"/>
-      <c r="C51" s="274"/>
+      <c r="B51" s="293"/>
+      <c r="C51" s="293"/>
       <c r="D51" s="230" t="s">
         <v>159</v>
       </c>
@@ -19719,7 +19722,7 @@
       <c r="D57" s="228"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="267" t="s">
+      <c r="A58" s="286" t="s">
         <v>189</v>
       </c>
       <c r="B58" s="189"/>
@@ -19729,7 +19732,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="267"/>
+      <c r="A59" s="286"/>
       <c r="B59" s="189"/>
       <c r="C59" s="189"/>
       <c r="D59" s="230"/>
@@ -19763,46 +19766,42 @@
       </c>
       <c r="B63" s="189"/>
       <c r="C63" s="208"/>
-      <c r="D63" s="268"/>
+      <c r="D63" s="287"/>
     </row>
     <row r="64" spans="1:4" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="270" t="s">
+      <c r="A64" s="289" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="271"/>
-      <c r="C64" s="272"/>
-      <c r="D64" s="269"/>
+      <c r="B64" s="290"/>
+      <c r="C64" s="291"/>
+      <c r="D64" s="288"/>
     </row>
     <row r="65" spans="1:4" ht="110.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="270" t="s">
+      <c r="A65" s="289" t="s">
         <v>221</v>
       </c>
-      <c r="B65" s="271"/>
-      <c r="C65" s="272"/>
+      <c r="B65" s="290"/>
+      <c r="C65" s="291"/>
       <c r="D65" s="228"/>
     </row>
     <row r="66" spans="1:4" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="262" t="s">
+      <c r="A66" s="281" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="263"/>
-      <c r="C66" s="264"/>
+      <c r="B66" s="282"/>
+      <c r="C66" s="283"/>
       <c r="D66" s="228"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A51:C51"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:C33"/>
@@ -19811,13 +19810,17 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <conditionalFormatting sqref="C9">
     <cfRule type="containsBlanks" dxfId="17" priority="1">
@@ -20254,21 +20257,21 @@
       <c r="E1" s="179"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="271" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
       <c r="E2" s="179"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="274" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
       <c r="E3" s="179"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20346,64 +20349,64 @@
       <c r="E14" s="179"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="300" t="s">
+      <c r="A15" s="294" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="306"/>
+      <c r="B15" s="295"/>
       <c r="C15" s="208"/>
       <c r="D15" s="216"/>
       <c r="E15" s="179"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="300" t="s">
+      <c r="A16" s="294" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="306"/>
+      <c r="B16" s="295"/>
       <c r="C16" s="208"/>
       <c r="D16" s="216"/>
       <c r="E16" s="179"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="300" t="s">
+      <c r="A17" s="294" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="306"/>
+      <c r="B17" s="295"/>
       <c r="C17" s="208"/>
       <c r="D17" s="216"/>
       <c r="E17" s="179"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="300" t="s">
+      <c r="A18" s="294" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="306"/>
+      <c r="B18" s="295"/>
       <c r="C18" s="208"/>
       <c r="D18" s="216"/>
       <c r="E18" s="179"/>
     </row>
     <row r="19" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="300" t="s">
+      <c r="A19" s="294" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="306"/>
+      <c r="B19" s="295"/>
       <c r="D19" s="216"/>
       <c r="E19" s="179"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="302" t="s">
+      <c r="A20" s="296" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="276"/>
+      <c r="B20" s="267"/>
       <c r="C20" s="208"/>
       <c r="D20" s="216"/>
       <c r="E20" s="181"/>
     </row>
     <row r="21" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="275" t="s">
+      <c r="A21" s="266" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="276"/>
-      <c r="C21" s="277"/>
+      <c r="B21" s="267"/>
+      <c r="C21" s="268"/>
       <c r="D21" s="216"/>
       <c r="E21" s="179"/>
     </row>
@@ -20420,28 +20423,28 @@
       <c r="E23" s="179"/>
     </row>
     <row r="24" spans="1:5" s="194" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="300" t="s">
+      <c r="A24" s="294" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="306"/>
+      <c r="B24" s="295"/>
       <c r="C24" s="207"/>
       <c r="D24" s="216"/>
       <c r="E24" s="224"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="300" t="s">
+      <c r="A25" s="294" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="306"/>
+      <c r="B25" s="295"/>
       <c r="C25" s="207"/>
       <c r="D25" s="217"/>
       <c r="E25" s="179"/>
     </row>
     <row r="26" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="300" t="s">
+      <c r="A26" s="294" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="279"/>
+      <c r="B26" s="270"/>
       <c r="C26" s="208"/>
       <c r="D26" s="216" t="s">
         <v>165</v>
@@ -20449,10 +20452,10 @@
       <c r="E26" s="179"/>
     </row>
     <row r="27" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="300" t="s">
+      <c r="A27" s="294" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="279"/>
+      <c r="B27" s="270"/>
       <c r="C27" s="209"/>
       <c r="D27" s="216"/>
       <c r="E27" s="179"/>
@@ -20464,65 +20467,65 @@
       <c r="D28" s="241"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="301" t="s">
+      <c r="A29" s="300" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="281"/>
-      <c r="C29" s="281"/>
+      <c r="B29" s="278"/>
+      <c r="C29" s="278"/>
       <c r="D29" s="216"/>
       <c r="E29" s="179"/>
     </row>
     <row r="30" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="290" t="s">
+      <c r="A30" s="297" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="291"/>
-      <c r="C30" s="292"/>
+      <c r="B30" s="298"/>
+      <c r="C30" s="299"/>
       <c r="D30" s="216"/>
       <c r="E30" s="179"/>
     </row>
     <row r="31" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="290" t="s">
+      <c r="A31" s="297" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="291"/>
-      <c r="C31" s="292"/>
+      <c r="B31" s="298"/>
+      <c r="C31" s="299"/>
       <c r="D31" s="216"/>
       <c r="E31" s="179"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="290" t="s">
+      <c r="A32" s="297" t="s">
         <v>239</v>
       </c>
-      <c r="B32" s="291"/>
-      <c r="C32" s="292"/>
+      <c r="B32" s="298"/>
+      <c r="C32" s="299"/>
       <c r="D32" s="216"/>
       <c r="E32" s="179"/>
     </row>
     <row r="33" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="290" t="s">
+      <c r="A33" s="297" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="291"/>
-      <c r="C33" s="292"/>
+      <c r="B33" s="298"/>
+      <c r="C33" s="299"/>
       <c r="D33" s="216"/>
       <c r="E33" s="179"/>
     </row>
     <row r="34" spans="1:16384" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="290" t="s">
+      <c r="A34" s="297" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="291"/>
-      <c r="C34" s="292"/>
+      <c r="B34" s="298"/>
+      <c r="C34" s="299"/>
       <c r="D34" s="216"/>
       <c r="E34" s="179"/>
     </row>
     <row r="35" spans="1:16384" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="290" t="s">
+      <c r="A35" s="297" t="s">
         <v>242</v>
       </c>
-      <c r="B35" s="291"/>
-      <c r="C35" s="292"/>
+      <c r="B35" s="298"/>
+      <c r="C35" s="299"/>
       <c r="D35" s="216"/>
       <c r="E35" s="179"/>
     </row>
@@ -20533,29 +20536,29 @@
       <c r="D36" s="241"/>
     </row>
     <row r="37" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="302" t="s">
+      <c r="A37" s="296" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="276"/>
-      <c r="C37" s="277"/>
+      <c r="B37" s="267"/>
+      <c r="C37" s="268"/>
       <c r="D37" s="216"/>
       <c r="E37" s="179"/>
     </row>
     <row r="38" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="303" t="s">
+      <c r="A38" s="301" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="304"/>
-      <c r="C38" s="305"/>
+      <c r="B38" s="302"/>
+      <c r="C38" s="303"/>
       <c r="D38" s="216"/>
       <c r="E38" s="179"/>
     </row>
     <row r="39" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="290" t="s">
+      <c r="A39" s="297" t="s">
         <v>245</v>
       </c>
-      <c r="B39" s="291"/>
-      <c r="C39" s="292"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="299"/>
       <c r="D39" s="216"/>
       <c r="E39" s="179"/>
     </row>
@@ -36954,40 +36957,40 @@
       <c r="XFD41" s="219"/>
     </row>
     <row r="42" spans="1:16384" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="290" t="s">
+      <c r="A42" s="297" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="291"/>
-      <c r="C42" s="292"/>
+      <c r="B42" s="298"/>
+      <c r="C42" s="299"/>
       <c r="D42" s="216"/>
       <c r="E42" s="179"/>
     </row>
     <row r="43" spans="1:16384" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="290" t="s">
+      <c r="A43" s="297" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="291"/>
-      <c r="C43" s="292"/>
+      <c r="B43" s="298"/>
+      <c r="C43" s="299"/>
       <c r="D43" s="216"/>
       <c r="E43" s="179"/>
     </row>
     <row r="44" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="297" t="s">
+      <c r="A44" s="308" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="298"/>
-      <c r="C44" s="299"/>
+      <c r="B44" s="309"/>
+      <c r="C44" s="310"/>
       <c r="D44" s="216" t="s">
         <v>165</v>
       </c>
       <c r="E44" s="179"/>
     </row>
     <row r="45" spans="1:16384" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="293" t="s">
+      <c r="A45" s="304" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="294"/>
-      <c r="C45" s="294"/>
+      <c r="B45" s="305"/>
+      <c r="C45" s="305"/>
       <c r="D45" s="216"/>
       <c r="E45" s="179"/>
     </row>
@@ -37086,12 +37089,12 @@
       <c r="E58" s="179"/>
     </row>
     <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="295" t="s">
+      <c r="A59" s="306" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="296"/>
-      <c r="C59" s="296"/>
-      <c r="D59" s="296"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
       <c r="E59" s="179"/>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -37100,7 +37103,7 @@
       </c>
       <c r="B60" s="189"/>
       <c r="C60" s="189"/>
-      <c r="D60" s="265"/>
+      <c r="D60" s="284"/>
       <c r="E60" s="179"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -37109,7 +37112,7 @@
       </c>
       <c r="B61" s="189"/>
       <c r="C61" s="189"/>
-      <c r="D61" s="266"/>
+      <c r="D61" s="285"/>
       <c r="E61" s="179"/>
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -37179,7 +37182,7 @@
       <c r="E68" s="179"/>
     </row>
     <row r="69" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="267" t="s">
+      <c r="A69" s="286" t="s">
         <v>189</v>
       </c>
       <c r="B69" s="189"/>
@@ -37190,7 +37193,7 @@
       <c r="E69" s="179"/>
     </row>
     <row r="70" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="267"/>
+      <c r="A70" s="286"/>
       <c r="B70" s="189"/>
       <c r="C70" s="189"/>
       <c r="D70" s="222"/>
@@ -37232,35 +37235,56 @@
       <c r="E74" s="179"/>
     </row>
     <row r="75" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="270" t="s">
+      <c r="A75" s="289" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="271"/>
-      <c r="C75" s="272"/>
+      <c r="B75" s="290"/>
+      <c r="C75" s="291"/>
       <c r="D75" s="211"/>
       <c r="E75" s="179"/>
     </row>
     <row r="76" spans="1:5" ht="110.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="270" t="s">
+      <c r="A76" s="289" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="271"/>
-      <c r="C76" s="272"/>
+      <c r="B76" s="290"/>
+      <c r="C76" s="291"/>
       <c r="D76" s="211"/>
       <c r="E76" s="179"/>
     </row>
     <row r="77" spans="1:5" ht="100.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="270" t="s">
+      <c r="A77" s="289" t="s">
         <v>192</v>
       </c>
-      <c r="B77" s="271"/>
-      <c r="C77" s="272"/>
+      <c r="B77" s="290"/>
+      <c r="C77" s="291"/>
       <c r="D77" s="211"/>
       <c r="E77" s="179"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/cARWU4qTB3KKoE0UEqjo8fVBL/Q+Spj9t6SuYAux2cToLJVu/SGZ8YCIScIYMLMyTuxKPp3usbCtowcUM0fTA==" saltValue="cjA2C26LvdMoIRQOesvkBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="33">
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -37273,27 +37297,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <conditionalFormatting sqref="C9">
     <cfRule type="containsBlanks" dxfId="9" priority="15">
@@ -37679,10 +37682,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="312" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="308"/>
+      <c r="B1" s="312"/>
       <c r="C1" s="171"/>
       <c r="D1" s="171"/>
       <c r="E1" s="171"/>
@@ -37704,14 +37707,14 @@
       <c r="U1" s="171"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="311" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
+      <c r="B2" s="311"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
       <c r="G2" s="171"/>
       <c r="H2" s="171"/>
       <c r="I2" s="171"/>
@@ -37729,14 +37732,14 @@
       <c r="U2" s="171"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="307" t="s">
+      <c r="A3" s="311" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
       <c r="G3" s="171"/>
       <c r="H3" s="171"/>
       <c r="I3" s="171"/>
@@ -37831,7 +37834,7 @@
   <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="E13" sqref="E13:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37856,13 +37859,13 @@
       <c r="A1" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="309" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="311"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="335"/>
       <c r="H1" t="s">
         <v>249</v>
       </c>
@@ -37891,13 +37894,13 @@
     </row>
     <row r="2" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="244"/>
-      <c r="B2" s="318"/>
-      <c r="C2" s="312" t="s">
+      <c r="B2" s="338"/>
+      <c r="C2" s="322" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="314"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="321"/>
       <c r="H2" t="s">
         <v>18</v>
       </c>
@@ -37917,32 +37920,32 @@
         <v>247</v>
       </c>
       <c r="B3" s="246"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="314"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="321"/>
       <c r="H3"/>
-      <c r="I3" s="319" t="s">
+      <c r="I3" s="330" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319" t="s">
+      <c r="J3" s="330"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="319"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="319"/>
+      <c r="M3" s="330"/>
+      <c r="N3" s="330"/>
+      <c r="O3" s="330"/>
     </row>
     <row r="4" spans="1:18" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="245" t="s">
         <v>248</v>
       </c>
       <c r="B4" s="247"/>
-      <c r="C4" s="312"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="314"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="321"/>
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
@@ -38004,10 +38007,10 @@
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="315" t="s">
+      <c r="B6" s="316" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="316"/>
+      <c r="C6" s="318"/>
       <c r="F6" s="8"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -38028,11 +38031,11 @@
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="322"/>
-      <c r="D7" s="322"/>
-      <c r="E7" s="322"/>
-      <c r="F7" s="316"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="317"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="318"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -38045,11 +38048,11 @@
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="315"/>
-      <c r="C8" s="322"/>
-      <c r="D8" s="322"/>
-      <c r="E8" s="322"/>
-      <c r="F8" s="316"/>
+      <c r="B8" s="316"/>
+      <c r="C8" s="317"/>
+      <c r="D8" s="317"/>
+      <c r="E8" s="317"/>
+      <c r="F8" s="318"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -38062,13 +38065,13 @@
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="319" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="322"/>
-      <c r="D9" s="322"/>
-      <c r="E9" s="322"/>
-      <c r="F9" s="316"/>
+      <c r="C9" s="317"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="318"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
@@ -38116,11 +38119,11 @@
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="315"/>
-      <c r="C10" s="322"/>
-      <c r="D10" s="322"/>
-      <c r="E10" s="322"/>
-      <c r="F10" s="316"/>
+      <c r="B10" s="316"/>
+      <c r="C10" s="317"/>
+      <c r="D10" s="317"/>
+      <c r="E10" s="317"/>
+      <c r="F10" s="318"/>
       <c r="H10" t="s">
         <v>33</v>
       </c>
@@ -38261,10 +38264,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="E13" s="350" t="s">
-        <v>255</v>
-      </c>
-      <c r="F13" s="314"/>
+      <c r="E13" s="320" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="321"/>
       <c r="H13" t="s">
         <v>40</v>
       </c>
@@ -38314,8 +38317,8 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="314"/>
+      <c r="E14" s="322"/>
+      <c r="F14" s="321"/>
       <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
@@ -38356,8 +38359,8 @@
       </c>
       <c r="B15"/>
       <c r="C15" s="1"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="314"/>
+      <c r="E15" s="322"/>
+      <c r="F15" s="321"/>
       <c r="H15" s="1" t="s">
         <v>46</v>
       </c>
@@ -38398,8 +38401,8 @@
       </c>
       <c r="B16"/>
       <c r="C16" s="1"/>
-      <c r="E16" s="312"/>
-      <c r="F16" s="314"/>
+      <c r="E16" s="322"/>
+      <c r="F16" s="321"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -38413,8 +38416,8 @@
       <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="E17" s="312"/>
-      <c r="F17" s="314"/>
+      <c r="E17" s="322"/>
+      <c r="F17" s="321"/>
       <c r="H17" s="1" t="s">
         <v>51</v>
       </c>
@@ -38456,8 +38459,8 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="E18" s="312"/>
-      <c r="F18" s="314"/>
+      <c r="E18" s="322"/>
+      <c r="F18" s="321"/>
       <c r="H18" s="1" t="s">
         <v>52</v>
       </c>
@@ -38498,8 +38501,8 @@
       <c r="A19" s="21"/>
       <c r="B19" s="250"/>
       <c r="C19" s="1"/>
-      <c r="E19" s="312"/>
-      <c r="F19" s="314"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="321"/>
       <c r="H19" s="1" t="s">
         <v>54</v>
       </c>
@@ -38539,8 +38542,8 @@
       <c r="A20" s="26"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="314"/>
+      <c r="E20" s="322"/>
+      <c r="F20" s="321"/>
       <c r="H20" s="1" t="s">
         <v>56</v>
       </c>
@@ -38583,8 +38586,8 @@
       </c>
       <c r="B21" s="251"/>
       <c r="C21" s="252"/>
-      <c r="E21" s="312"/>
-      <c r="F21" s="314"/>
+      <c r="E21" s="322"/>
+      <c r="F21" s="321"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="11"/>
@@ -38600,8 +38603,8 @@
       <c r="B22" s="17">
         <v>1937</v>
       </c>
-      <c r="E22" s="312"/>
-      <c r="F22" s="314"/>
+      <c r="E22" s="322"/>
+      <c r="F22" s="321"/>
       <c r="H22" s="1" t="s">
         <v>58</v>
       </c>
@@ -38653,8 +38656,8 @@
         <f>IFERROR(B23/$B$22,"")</f>
         <v>0.27000516262261226</v>
       </c>
-      <c r="E23" s="312"/>
-      <c r="F23" s="314"/>
+      <c r="E23" s="322"/>
+      <c r="F23" s="321"/>
       <c r="I23"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -38674,8 +38677,8 @@
         <f>IFERROR(B24/$B$22,"")</f>
         <v>0.72999483737738768</v>
       </c>
-      <c r="E24" s="312"/>
-      <c r="F24" s="314"/>
+      <c r="E24" s="322"/>
+      <c r="F24" s="321"/>
       <c r="H24" s="22" t="s">
         <v>60</v>
       </c>
@@ -38711,14 +38714,14 @@
       <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="349" t="s">
+      <c r="B25" s="260" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="261" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="351" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="312"/>
-      <c r="F25" s="314"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="321"/>
       <c r="H25" s="27" t="s">
         <v>30</v>
       </c>
@@ -38749,8 +38752,8 @@
     </row>
     <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="E26" s="312"/>
-      <c r="F26" s="314"/>
+      <c r="E26" s="322"/>
+      <c r="F26" s="321"/>
       <c r="H26" s="32" t="s">
         <v>33</v>
       </c>
@@ -38783,8 +38786,8 @@
       <c r="A27" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="312"/>
-      <c r="F27" s="314"/>
+      <c r="E27" s="322"/>
+      <c r="F27" s="321"/>
       <c r="H27" s="37" t="s">
         <v>37</v>
       </c>
@@ -38820,8 +38823,8 @@
       <c r="B28" s="17">
         <v>1694</v>
       </c>
-      <c r="E28" s="312"/>
-      <c r="F28" s="314"/>
+      <c r="E28" s="322"/>
+      <c r="F28" s="321"/>
       <c r="H28" s="37" t="s">
         <v>40</v>
       </c>
@@ -38857,8 +38860,8 @@
       <c r="B29" s="17">
         <v>83</v>
       </c>
-      <c r="E29" s="312"/>
-      <c r="F29" s="314"/>
+      <c r="E29" s="322"/>
+      <c r="F29" s="321"/>
       <c r="H29" s="42" t="s">
         <v>71</v>
       </c>
@@ -38894,8 +38897,8 @@
       <c r="B30" s="17">
         <v>340</v>
       </c>
-      <c r="E30" s="312"/>
-      <c r="F30" s="314"/>
+      <c r="E30" s="322"/>
+      <c r="F30" s="321"/>
       <c r="H30" s="46"/>
       <c r="I30" s="47"/>
       <c r="J30" s="47"/>
@@ -38906,8 +38909,8 @@
     </row>
     <row r="31" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="E31" s="312"/>
-      <c r="F31" s="314"/>
+      <c r="E31" s="322"/>
+      <c r="F31" s="321"/>
       <c r="H31" s="48" t="s">
         <v>73</v>
       </c>
@@ -38943,8 +38946,8 @@
       <c r="B32" s="17">
         <v>2117</v>
       </c>
-      <c r="E32" s="312"/>
-      <c r="F32" s="314"/>
+      <c r="E32" s="322"/>
+      <c r="F32" s="321"/>
       <c r="H32" s="53" t="s">
         <v>81</v>
       </c>
@@ -38984,8 +38987,8 @@
         <f>IFERROR(B33/$B$32, "")</f>
         <v>0.16107699574870099</v>
       </c>
-      <c r="E33" s="312"/>
-      <c r="F33" s="314"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="321"/>
       <c r="H33" s="57" t="s">
         <v>37</v>
       </c>
@@ -39020,8 +39023,8 @@
       </c>
       <c r="B34" s="74"/>
       <c r="C34" s="75"/>
-      <c r="E34" s="312"/>
-      <c r="F34" s="314"/>
+      <c r="E34" s="322"/>
+      <c r="F34" s="321"/>
       <c r="H34" s="57" t="s">
         <v>40</v>
       </c>
@@ -39062,8 +39065,8 @@
         <v>9.4473311289560704E-4</v>
       </c>
       <c r="D35" s="253"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="314"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="321"/>
       <c r="H35" s="61" t="s">
         <v>71</v>
       </c>
@@ -39104,8 +39107,8 @@
         <v>5.2905054322153991E-2</v>
       </c>
       <c r="D36" s="253"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="314"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="321"/>
       <c r="H36" s="65" t="s">
         <v>85</v>
       </c>
@@ -39128,8 +39131,8 @@
         <v>0.78412848370335375</v>
       </c>
       <c r="D37" s="253"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="314"/>
+      <c r="E37" s="322"/>
+      <c r="F37" s="321"/>
       <c r="H37" s="46"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
@@ -39145,8 +39148,8 @@
       <c r="B38" s="17"/>
       <c r="C38" s="254"/>
       <c r="D38" s="253"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="314"/>
+      <c r="E38" s="322"/>
+      <c r="F38" s="321"/>
       <c r="H38" s="69" t="s">
         <v>88</v>
       </c>
@@ -39182,8 +39185,8 @@
       <c r="B39" s="17"/>
       <c r="C39" s="254"/>
       <c r="D39" s="253"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="314"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="321"/>
       <c r="H39" s="76" t="s">
         <v>81</v>
       </c>
@@ -39216,8 +39219,8 @@
       <c r="A40" s="4"/>
       <c r="C40" s="255"/>
       <c r="D40" s="253"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="314"/>
+      <c r="E40" s="322"/>
+      <c r="F40" s="321"/>
       <c r="H40" s="80" t="s">
         <v>37</v>
       </c>
@@ -39250,14 +39253,14 @@
       <c r="A41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="352" t="s">
+      <c r="B41" s="262" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="261" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="351" t="s">
-        <v>259</v>
-      </c>
-      <c r="E41" s="312"/>
-      <c r="F41" s="314"/>
+      <c r="E41" s="322"/>
+      <c r="F41" s="321"/>
       <c r="H41" s="80" t="s">
         <v>40</v>
       </c>
@@ -39288,8 +39291,8 @@
     </row>
     <row r="42" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="E42" s="312"/>
-      <c r="F42" s="314"/>
+      <c r="E42" s="322"/>
+      <c r="F42" s="321"/>
       <c r="H42" s="84" t="s">
         <v>98</v>
       </c>
@@ -39320,8 +39323,8 @@
     </row>
     <row r="43" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="314"/>
+      <c r="E43" s="322"/>
+      <c r="F43" s="321"/>
     </row>
     <row r="44" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -39333,8 +39336,8 @@
       <c r="C44" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="312"/>
-      <c r="F44" s="314"/>
+      <c r="E44" s="322"/>
+      <c r="F44" s="321"/>
     </row>
     <row r="45" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="89" t="s">
@@ -39348,8 +39351,8 @@
         <v>1.7949929145016533E-2</v>
       </c>
       <c r="D45" s="253"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="314"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="321"/>
     </row>
     <row r="46" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="91" t="s">
@@ -39362,14 +39365,14 @@
         <f>IFERROR(B46/$B$32,"")</f>
         <v>3.7789324515824282E-3</v>
       </c>
-      <c r="E46" s="312"/>
-      <c r="F46" s="314"/>
+      <c r="E46" s="322"/>
+      <c r="F46" s="321"/>
       <c r="H46" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="353" t="s">
         <v>113</v>
       </c>
       <c r="B47" s="17">
@@ -39380,8 +39383,8 @@
         <v>7.0854983467170526E-3</v>
       </c>
       <c r="D47" s="253"/>
-      <c r="E47" s="312"/>
-      <c r="F47" s="314"/>
+      <c r="E47" s="322"/>
+      <c r="F47" s="321"/>
       <c r="H47" s="4" t="s">
         <v>103</v>
       </c>
@@ -39397,8 +39400,8 @@
         <f t="shared" ref="C48:C52" si="10">IFERROR(B48/$B$32,"")</f>
         <v>2.3618327822390174E-3</v>
       </c>
-      <c r="E48" s="312"/>
-      <c r="F48" s="314"/>
+      <c r="E48" s="322"/>
+      <c r="F48" s="321"/>
       <c r="H48" s="4" t="s">
         <v>104</v>
       </c>
@@ -39412,8 +39415,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E49" s="312"/>
-      <c r="F49" s="314"/>
+      <c r="E49" s="322"/>
+      <c r="F49" s="321"/>
       <c r="H49" s="4" t="s">
         <v>108</v>
       </c>
@@ -39427,8 +39430,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E50" s="312"/>
-      <c r="F50" s="314"/>
+      <c r="E50" s="322"/>
+      <c r="F50" s="321"/>
       <c r="H50" s="4" t="s">
         <v>110</v>
       </c>
@@ -39442,8 +39445,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E51" s="312"/>
-      <c r="F51" s="314"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="321"/>
       <c r="H51" s="4" t="s">
         <v>112</v>
       </c>
@@ -39457,8 +39460,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E52" s="312"/>
-      <c r="F52" s="314"/>
+      <c r="E52" s="322"/>
+      <c r="F52" s="321"/>
       <c r="H52" s="4" t="s">
         <v>114</v>
       </c>
@@ -39466,8 +39469,8 @@
     <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="89"/>
       <c r="C53" s="92"/>
-      <c r="E53" s="312"/>
-      <c r="F53" s="314"/>
+      <c r="E53" s="322"/>
+      <c r="F53" s="321"/>
       <c r="H53" s="4" t="s">
         <v>116</v>
       </c>
@@ -39476,19 +39479,19 @@
       <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="312"/>
-      <c r="F54" s="314"/>
+      <c r="E54" s="322"/>
+      <c r="F54" s="321"/>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="347" t="s">
+      <c r="A55" s="259" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="17">
         <v>10</v>
       </c>
       <c r="C55"/>
-      <c r="E55" s="312"/>
-      <c r="F55" s="314"/>
+      <c r="E55" s="322"/>
+      <c r="F55" s="321"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
@@ -39498,8 +39501,8 @@
         <v>41</v>
       </c>
       <c r="C56" s="256"/>
-      <c r="E56" s="326"/>
-      <c r="F56" s="327"/>
+      <c r="E56" s="323"/>
+      <c r="F56" s="324"/>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
@@ -39508,28 +39511,28 @@
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
-      <c r="B58" s="328" t="s">
+      <c r="B58" s="325" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="330" t="s">
+      <c r="C58" s="327" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="330"/>
-      <c r="E58" s="330"/>
+      <c r="D58" s="327"/>
+      <c r="E58" s="327"/>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="329"/>
+      <c r="B59" s="326"/>
       <c r="C59" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="331" t="s">
+      <c r="D59" s="328" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="332"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -39542,10 +39545,10 @@
       <c r="C60" s="258">
         <v>5.5E-2</v>
       </c>
-      <c r="D60" s="320">
+      <c r="D60" s="331">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E60" s="321"/>
+      <c r="E60" s="332"/>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -39558,10 +39561,10 @@
       <c r="C61" s="258">
         <v>1E-3</v>
       </c>
-      <c r="D61" s="320">
+      <c r="D61" s="331">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E61" s="321"/>
+      <c r="E61" s="332"/>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -39574,10 +39577,10 @@
       <c r="C62" s="258">
         <v>0.01</v>
       </c>
-      <c r="D62" s="320">
+      <c r="D62" s="331">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E62" s="321"/>
+      <c r="E62" s="332"/>
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -39592,14 +39595,14 @@
       <c r="A64" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="B64" s="323" t="str">
+      <c r="B64" s="313" t="str">
         <f ca="1">I22 &amp; R22</f>
         <v>10B: Number of surgeons missing</v>
       </c>
-      <c r="C64" s="324"/>
-      <c r="D64" s="324"/>
-      <c r="E64" s="324"/>
-      <c r="F64" s="325"/>
+      <c r="C64" s="314"/>
+      <c r="D64" s="314"/>
+      <c r="E64" s="314"/>
+      <c r="F64" s="315"/>
     </row>
     <row r="65" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="98"/>
@@ -39716,6 +39719,16 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
@@ -39724,16 +39737,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="A2">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
@@ -39850,15 +39853,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="339" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="335"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="341"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
@@ -40265,27 +40268,27 @@
       <c r="A23" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="336" t="s">
+      <c r="B23" s="342" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="337"/>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="338"/>
+      <c r="C23" s="343"/>
+      <c r="D23" s="343"/>
+      <c r="E23" s="343"/>
+      <c r="F23" s="343"/>
+      <c r="G23" s="344"/>
     </row>
     <row r="24" spans="1:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="339" t="s">
+      <c r="B24" s="345" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="339"/>
-      <c r="D24" s="339"/>
-      <c r="E24" s="339"/>
-      <c r="F24" s="339"/>
-      <c r="G24" s="340"/>
+      <c r="C24" s="345"/>
+      <c r="D24" s="345"/>
+      <c r="E24" s="345"/>
+      <c r="F24" s="345"/>
+      <c r="G24" s="346"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -40320,13 +40323,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="347" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -40578,36 +40581,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="348" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
       <c r="D1" s="171"/>
       <c r="E1" s="172"/>
       <c r="F1" s="172"/>
       <c r="G1" s="172"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="343"/>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
+      <c r="A2" s="349"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
       <c r="D2" s="171"/>
       <c r="E2" s="172"/>
       <c r="F2" s="172"/>
       <c r="G2" s="172"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="350" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="346" t="s">
+      <c r="B4" s="352" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="346"/>
+      <c r="C4" s="352"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="345"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="173" t="s">
         <v>145</v>
       </c>
